--- a/res/cell_map.xlsx
+++ b/res/cell_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cx16\code\snake\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{98F79BC0-489D-432D-9122-EAD8E9BBF2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCC853C7-2777-4C36-82E0-A6374502C864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5115" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{048E7C30-4C2C-4E3A-B501-CF55FF6D7193}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{048E7C30-4C2C-4E3A-B501-CF55FF6D7193}"/>
   </bookViews>
   <sheets>
     <sheet name="snake" sheetId="1" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1FFEB8-8E0C-4E35-A385-9182B51CDB97}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,16 +746,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -779,39 +779,39 @@
       </c>
       <c r="O3">
         <f>IF(J3,IF(K3,H3,F3),IF(K3,G3,E3))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <f>IF(J3,IF(K3,G3,E3),IF(K3,H3,F3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <f>IF(J3,IF(K3,F3,H3),IF(K3,E3,G3))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f>IF(J3,IF(K3,E3,G3),IF(K3,F3,H3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f>IF(O3="-",16,$N3+O3)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3">
         <f>IF(P3="-",16,$N3+P3)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3">
         <f>IF(Q3="-",16,$N3+Q3)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V3">
         <f>IF(R3="-",16,$N3+R3)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W66" si="0">"+tileDef  " &amp;M3 &amp; ", SNAKE_ADDR, " &amp; S3 &amp;", "&amp;T3&amp;", "&amp;U3&amp;", "&amp;V3&amp;", SNAKE_PAL, "&amp;IF(J3=0,IF(K3=0,"0","TILE_FLIP_V"),IF(K3=0,"TILE_FLIP_H","TILE_FLIP_H | TILE_FLIP_V"))</f>
-        <v>+tileDef  9, SNAKE_ADDR, 52, 53, 54, 55, SNAKE_PAL, 0</v>
+        <v>+tileDef  9, SNAKE_ADDR, 54, 55, 52, 53, SNAKE_PAL, 0</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1238,16 +1238,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1271,39 +1271,39 @@
       </c>
       <c r="O9">
         <f>IF(J9,IF(K9,H9,F9),IF(K9,G9,E9))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f>IF(J9,IF(K9,G9,E9),IF(K9,H9,F9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f>IF(J9,IF(K9,F9,H9),IF(K9,E9,G9))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <f>IF(J9,IF(K9,E9,G9),IF(K9,F9,H9))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <f>IF(O9="-",16,$N9+O9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <f>IF(P9="-",16,$N9+P9)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U9">
         <f>IF(Q9="-",16,$N9+Q9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9">
         <f>IF(R9="-",16,$N9+R9)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="0"/>
-        <v>+tileDef  15, SNAKE_ADDR, 4, 5, 6, 7, SNAKE_PAL, 0</v>
+        <v>+tileDef  15, SNAKE_ADDR, 5, 4, 7, 6, SNAKE_PAL, 0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1730,16 +1730,16 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1763,39 +1763,39 @@
       </c>
       <c r="O15">
         <f>IF(J15,IF(K15,H15,F15),IF(K15,G15,E15))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <f>IF(J15,IF(K15,G15,E15),IF(K15,H15,F15))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15">
         <f>IF(J15,IF(K15,F15,H15),IF(K15,E15,G15))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <f>IF(J15,IF(K15,E15,G15),IF(K15,F15,H15))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <f>IF(O15="-",16,$N15+O15)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T15">
         <f>IF(P15="-",16,$N15+P15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15">
         <f>IF(Q15="-",16,$N15+Q15)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15">
         <f>IF(R15="-",16,$N15+R15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="0"/>
-        <v>+tileDef  21, SNAKE_ADDR, 7, 6, 5, 4, SNAKE_PAL, TILE_FLIP_H | TILE_FLIP_V</v>
+        <v>+tileDef  21, SNAKE_ADDR, 6, 7, 4, 5, SNAKE_PAL, TILE_FLIP_H | TILE_FLIP_V</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2222,16 +2222,16 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2255,39 +2255,39 @@
       </c>
       <c r="O21">
         <f>IF(J21,IF(K21,H21,F21),IF(K21,G21,E21))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <f>IF(J21,IF(K21,G21,E21),IF(K21,H21,F21))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <f>IF(J21,IF(K21,F21,H21),IF(K21,E21,G21))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21">
         <f>IF(J21,IF(K21,E21,G21),IF(K21,F21,H21))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <f>IF(O21="-",16,$N21+O21)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T21">
         <f>IF(P21="-",16,$N21+P21)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U21">
         <f>IF(Q21="-",16,$N21+Q21)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V21">
         <f>IF(R21="-",16,$N21+R21)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="0"/>
-        <v>+tileDef  27, SNAKE_ADDR, 55, 54, 53, 52, SNAKE_PAL, TILE_FLIP_H | TILE_FLIP_V</v>
+        <v>+tileDef  27, SNAKE_ADDR, 53, 52, 55, 54, SNAKE_PAL, TILE_FLIP_H | TILE_FLIP_V</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -7878,7 +7878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1943DFB-9DEB-4D7C-8D73-74CA078DE480}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="L129" sqref="L2:L129"/>
     </sheetView>
   </sheetViews>
